--- a/irp-webapp/src/main/resources/irp-package/PT10thGradeMathItemsWithStudentResponses.xlsx
+++ b/irp-webapp/src/main/resources/irp-package/PT10thGradeMathItemsWithStudentResponses.xlsx
@@ -1,29 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="86">
+  <si>
+    <t>(SBAC_PT)SBAC Math HS-MATH-10-Spring-2014-2015</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>item-187-174.xml</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Lab/Trial Ready</t>
+  </si>
+  <si>
+    <t>ER : ER [7]</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>item-187-666.xml</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>item-187-686.xml</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>item-187-766.xml</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>GI : GI [2]</t>
+  </si>
+  <si>
+    <t>item-187-769.xml</t>
+  </si>
+  <si>
+    <t>item-187-1059.xml</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MS4</t>
+  </si>
+  <si>
+    <t>item-187-1387.xml</t>
+  </si>
+  <si>
+    <t>item-187-1448.xml</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>MC4 : MC4 [1]</t>
+  </si>
+  <si>
+    <t>item-187-1672.xml</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>TI : Table Item</t>
+  </si>
+  <si>
+    <t>item-187-1676.xml</t>
+  </si>
+  <si>
+    <t>item-187-1688.xml</t>
+  </si>
   <si>
     <t>Test Packages</t>
   </si>
   <si>
+    <t>Summary Report</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
@@ -51,33 +144,51 @@
     <t>Lookup</t>
   </si>
   <si>
+    <t>Item: ITS ID</t>
+  </si>
+  <si>
+    <t>Item: Subject</t>
+  </si>
+  <si>
+    <t>Item: Content Latest Version</t>
+  </si>
+  <si>
+    <t>Item: Current Review Status</t>
+  </si>
+  <si>
+    <t>Item: Item Format</t>
+  </si>
+  <si>
+    <t>Item ID</t>
+  </si>
+  <si>
+    <t>qrx</t>
+  </si>
+  <si>
+    <t>brf</t>
+  </si>
+  <si>
+    <t>prn</t>
+  </si>
+  <si>
+    <t>mp4</t>
+  </si>
+  <si>
+    <t>ogg</t>
+  </si>
+  <si>
+    <t>m4a</t>
+  </si>
+  <si>
+    <t>vtt</t>
+  </si>
+  <si>
     <t>Training Test Item</t>
   </si>
   <si>
-    <t>(SBAC_PT)SBAC Math HS-MATH-10-Spring-2014-2015</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>item-187-174.xml</t>
-  </si>
-  <si>
-    <t>MATH</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
     <t>any text</t>
   </si>
   <si>
-    <t>item-187-666.xml</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
     <t>YES for 2 and -7; NO for -2 and 7</t>
   </si>
   <si>
@@ -87,30 +198,18 @@
     <t>YES for -7; NO for -2, 2, and 7</t>
   </si>
   <si>
-    <t>item-187-686.xml</t>
-  </si>
-  <si>
-    <t>EQ</t>
-  </si>
-  <si>
-    <t>item-187-766.xml</t>
-  </si>
-  <si>
-    <t>GI</t>
+    <t>not present</t>
+  </si>
+  <si>
+    <t>arrow between points (1,2) and (3,6)</t>
   </si>
   <si>
     <t>arrow between points (1,2) and (4,6)</t>
   </si>
   <si>
-    <t>arrow between points (1,2) and (3,6)</t>
-  </si>
-  <si>
     <t>arrow between points (2,1) and (3,6)</t>
   </si>
   <si>
-    <t>item-187-769.xml</t>
-  </si>
-  <si>
     <t>Kim's car: 21; Justin's car: 27</t>
   </si>
   <si>
@@ -120,12 +219,6 @@
     <t>Kim's car: 31; Justin's car: 33</t>
   </si>
   <si>
-    <t>item-187-1059.xml</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>real, rational</t>
   </si>
   <si>
@@ -135,12 +228,6 @@
     <t>irrational</t>
   </si>
   <si>
-    <t>item-187-1387.xml</t>
-  </si>
-  <si>
-    <t>not present</t>
-  </si>
-  <si>
     <t>Line 1: 25; Line 2: 30</t>
   </si>
   <si>
@@ -150,12 +237,6 @@
     <t>Line 1: 35; Line 2: 10</t>
   </si>
   <si>
-    <t>item-187-1448.xml</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -165,12 +246,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>item-187-1672.xml</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
     <t xml:space="preserve">f(x): x-value = 2; y-value = 6; g(x): x-value = 1; y-value = 3.6 </t>
   </si>
   <si>
@@ -180,9 +255,6 @@
     <t xml:space="preserve">f(x): x-value = 1; y-value = 6; g(x): x-value = 2; y-value = 3.6 </t>
   </si>
   <si>
-    <t>item-187-1676.xml</t>
-  </si>
-  <si>
     <t>vertical line at 63</t>
   </si>
   <si>
@@ -192,22 +264,28 @@
     <t>vertical line at 65</t>
   </si>
   <si>
-    <t>item-187-1688.xml</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Student Responses (Alternate ID)</t>
+    <t>Training Test Items (corresponding to Column J above)</t>
+  </si>
+  <si>
+    <t>Student SSID 8598 Response</t>
+  </si>
+  <si>
+    <t>Student SSID 8599 Response</t>
+  </si>
+  <si>
+    <t>Student SSID 8600 Response</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -222,6 +300,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -230,14 +324,13 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +340,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,24 +368,42 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -289,61 +412,400 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Screen Shot 2014-12-22 at 2.54.04 PM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="12573000" cy="6997700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Screen Shot 2014-12-22 at 2.54.16 PM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10477500"/>
+          <a:ext cx="13335000" cy="4749800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Screen Shot 2014-12-22 at 2.52.31 PM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15621000"/>
+          <a:ext cx="7124700" cy="4025900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Screen Shot 2014-12-22 at 2.54.48 PM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20193000"/>
+          <a:ext cx="7429500" cy="9728200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Screen Shot 2014-12-22 at 3.00.40 PM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30289500"/>
+          <a:ext cx="12420600" cy="6959600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Screen Shot 2014-12-22 at 3.02.35 PM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="37719000"/>
+          <a:ext cx="6934200" cy="5308600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Screen Shot 2014-12-22 at 3.05.20 PM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="43434000"/>
+          <a:ext cx="13347700" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Screen Shot 2014-12-22 at 3.07.31 PM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="51435000"/>
+          <a:ext cx="12446000" cy="7035800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,20 +953,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -626,30 +1084,72 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -660,62 +1160,128 @@
       <c r="H1" s="2"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="O1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="V1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:31" ht="28">
+      <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="6">
-        <v>11190</v>
-      </c>
-      <c r="L2" s="6">
-        <v>11191</v>
-      </c>
-      <c r="M2" s="6">
-        <v>11192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3">
         <v>187</v>
@@ -727,36 +1293,84 @@
         <v>4867</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>174</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>2</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>16</v>
+      <c r="K3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3">
+        <v>174</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>174</v>
+      </c>
+      <c r="V3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>187</v>
+      </c>
+      <c r="X3">
+        <v>174</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="30">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>187</v>
@@ -768,36 +1382,84 @@
         <v>4867</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>666</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>3</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>21</v>
+      <c r="K4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4">
+        <v>666</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>49</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>666</v>
+      </c>
+      <c r="V4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4">
+        <v>187</v>
+      </c>
+      <c r="X4">
+        <v>788</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
       </c>
       <c r="D5">
         <v>187</v>
@@ -809,36 +1471,84 @@
         <v>4867</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I5">
         <v>686</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>4</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="11">
         <v>36</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="11">
         <v>16</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="11">
         <v>99</v>
       </c>
+      <c r="O5">
+        <v>686</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>22</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <v>686</v>
+      </c>
+      <c r="V5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5">
+        <v>187</v>
+      </c>
+      <c r="X5">
+        <v>790</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="45">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>187</v>
@@ -850,36 +1560,84 @@
         <v>4867</v>
       </c>
       <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
       </c>
       <c r="I6">
         <v>766</v>
       </c>
-      <c r="J6" s="7">
-        <v>8</v>
-      </c>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="8">
+        <v>8</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6">
+        <v>766</v>
+      </c>
+      <c r="P6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6">
         <v>26</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>28</v>
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6">
+        <v>766</v>
+      </c>
+      <c r="V6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>187</v>
+      </c>
+      <c r="X6">
+        <v>792</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="30">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>187</v>
@@ -891,36 +1649,84 @@
         <v>4867</v>
       </c>
       <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
       </c>
       <c r="I7">
         <v>769</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>32</v>
+      <c r="K7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7">
+        <v>769</v>
+      </c>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>19</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7">
+        <v>769</v>
+      </c>
+      <c r="V7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>187</v>
+      </c>
+      <c r="X7">
+        <v>793</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>187</v>
@@ -932,36 +1738,84 @@
         <v>4867</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I8">
         <v>1059</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="8">
         <v>6</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>37</v>
+      <c r="K8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8">
+        <v>1059</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+      <c r="R8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8">
+        <v>1059</v>
+      </c>
+      <c r="V8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>187</v>
+      </c>
+      <c r="X8">
+        <v>1078</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="30">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>187</v>
@@ -973,36 +1827,84 @@
         <v>4867</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9">
         <v>1387</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>42</v>
+      <c r="J9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9">
+        <v>1387</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9">
+        <v>1387</v>
+      </c>
+      <c r="V9" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>187</v>
+      </c>
+      <c r="X9">
+        <v>1672</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>187</v>
@@ -1014,36 +1916,84 @@
         <v>5644</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I10">
         <v>1448</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>47</v>
+      <c r="J10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10">
+        <v>1448</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10">
+        <v>1448</v>
+      </c>
+      <c r="V10" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>187</v>
+      </c>
+      <c r="X10">
+        <v>1673</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="60">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>187</v>
@@ -1055,36 +2005,84 @@
         <v>4867</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I11">
         <v>1672</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>7</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>52</v>
+      <c r="K11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11">
+        <v>1672</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>24</v>
+      </c>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11">
+        <v>1672</v>
+      </c>
+      <c r="V11" t="s">
+        <v>7</v>
+      </c>
+      <c r="W11">
+        <v>187</v>
+      </c>
+      <c r="X11">
+        <v>1689</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>187</v>
@@ -1096,36 +2094,84 @@
         <v>4867</v>
       </c>
       <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
         <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
       </c>
       <c r="I12">
         <v>1676</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
         <v>5</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>56</v>
+      <c r="K12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12">
+        <v>1676</v>
+      </c>
+      <c r="P12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12">
+        <v>1676</v>
+      </c>
+      <c r="V12" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>187</v>
+      </c>
+      <c r="X12">
+        <v>1695</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>187</v>
@@ -1137,61 +2183,101 @@
         <v>4867</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I13">
         <v>1688</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>58</v>
+      <c r="J13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13">
+        <v>1688</v>
+      </c>
+      <c r="P13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13">
+        <v>1688</v>
+      </c>
+      <c r="V13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13">
+        <v>187</v>
+      </c>
+      <c r="X13">
+        <v>1701</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+    <row r="19" spans="1:10" ht="26" thickBot="1">
+      <c r="A19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
+    <row r="20" spans="1:10" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A19:J19"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>